--- a/public/template/Import_Question_Template.xlsx
+++ b/public/template/Import_Question_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocTap\Nam 4\Tieu Luan Chuyen Nganh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\OnlineTest\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+  <si>
+    <t>Từ vựng</t>
+  </si>
+  <si>
+    <t>Ngữ pháp</t>
+  </si>
+  <si>
+    <t>The house was burgled while the family was_______in a card game.</t>
+  </si>
+  <si>
+    <t>buried</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> busy</t>
+  </si>
+  <si>
+    <t>absorbed</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
   <si>
     <t>a</t>
   </si>
@@ -37,36 +64,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>Câu trả lời đúng</t>
-  </si>
-  <si>
-    <t>Nội dung</t>
-  </si>
-  <si>
-    <t>Chủ đề câu hỏi</t>
-  </si>
-  <si>
-    <t>Từ vựng</t>
-  </si>
-  <si>
-    <t>Ngữ pháp</t>
-  </si>
-  <si>
-    <t>The house was burgled while the family was_______in a card game.</t>
-  </si>
-  <si>
-    <t>buried</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> busy</t>
-  </si>
-  <si>
-    <t>absorbed</t>
-  </si>
-  <si>
-    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -416,269 +413,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>chude!$B:$B</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -697,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
